--- a/2dconsistency.xlsx
+++ b/2dconsistency.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BERGEN\RStudio-Projects\Abalone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1AC9E9A-8A50-48D6-A103-0EB3E9AD4877}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5D7ADAB-638D-4875-AF9B-BE430A06C622}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27045" windowHeight="10050" xr2:uid="{FF70F1DF-52FB-4653-9FA4-4F04E8A760CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>participant</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>2Dmean</t>
+  </si>
+  <si>
+    <t>2Dxaxis2</t>
+  </si>
+  <si>
+    <t>2Dyaxis2</t>
+  </si>
+  <si>
+    <t>2Dmean2</t>
   </si>
 </sst>
 </file>
@@ -124,14 +133,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -155,6 +171,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4950C329-92BC-4B9C-8A55-4968B8BA4204}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +500,7 @@
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,8 +516,17 @@
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -513,8 +542,17 @@
       <c r="E2" s="2">
         <v>51.7610347559228</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="4">
+        <v>34.317100000000003</v>
+      </c>
+      <c r="H2" s="4">
+        <v>32.663049999999998</v>
+      </c>
+      <c r="I2" s="5">
+        <v>33.490079999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -530,8 +568,17 @@
       <c r="E3" s="2">
         <v>34.918745658054803</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="4">
+        <v>27.482949999999999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>27.257680000000001</v>
+      </c>
+      <c r="I3" s="5">
+        <v>27.37031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -547,8 +594,17 @@
       <c r="E4" s="2">
         <v>26.166568542329198</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="3">
+        <v>26.578291700648101</v>
+      </c>
+      <c r="H4" s="3">
+        <v>25.754845384010299</v>
+      </c>
+      <c r="I4" s="2">
+        <v>26.166568542329198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -564,8 +620,17 @@
       <c r="E5" s="2">
         <v>31.9547888550156</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>36.973096969777998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>26.936480740253099</v>
+      </c>
+      <c r="I5" s="2">
+        <v>31.9547888550156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -581,8 +646,17 @@
       <c r="E6" s="2">
         <v>29.010416640900701</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>29.2978277645737</v>
+      </c>
+      <c r="H6" s="3">
+        <v>28.723005517227701</v>
+      </c>
+      <c r="I6" s="2">
+        <v>29.010416640900701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -598,8 +672,17 @@
       <c r="E7" s="2">
         <v>30.278349004083498</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>34.593258477629597</v>
+      </c>
+      <c r="H7" s="3">
+        <v>25.963439530537499</v>
+      </c>
+      <c r="I7" s="2">
+        <v>30.278349004083498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -615,8 +698,17 @@
       <c r="E8" s="2">
         <v>41.002326579709496</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>37.130835293786902</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44.873817865632198</v>
+      </c>
+      <c r="I8" s="2">
+        <v>41.002326579709496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -632,8 +724,17 @@
       <c r="E9" s="2">
         <v>31.7390719174089</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <v>32.802932705111502</v>
+      </c>
+      <c r="H9" s="3">
+        <v>30.675211129706199</v>
+      </c>
+      <c r="I9" s="2">
+        <v>31.7390719174089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -649,8 +750,17 @@
       <c r="E10" s="2">
         <v>45.5572616432923</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>42.171948455801498</v>
+      </c>
+      <c r="H10" s="3">
+        <v>48.942574830783101</v>
+      </c>
+      <c r="I10" s="2">
+        <v>45.5572616432923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -666,8 +776,17 @@
       <c r="E11" s="2">
         <v>32.8286214771544</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="3">
+        <v>37.161746738244602</v>
+      </c>
+      <c r="H11" s="3">
+        <v>28.4954962160642</v>
+      </c>
+      <c r="I11" s="2">
+        <v>32.8286214771544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -683,8 +802,17 @@
       <c r="E12" s="2">
         <v>15.2012657862234</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <v>15.2299983595959</v>
+      </c>
+      <c r="H12" s="3">
+        <v>15.172533212850899</v>
+      </c>
+      <c r="I12" s="2">
+        <v>15.2012657862234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -700,8 +828,17 @@
       <c r="E13" s="2">
         <v>22.244605519083802</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="3">
+        <v>21.676442722232601</v>
+      </c>
+      <c r="H13" s="3">
+        <v>22.812768315934999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>22.244605519083802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -717,8 +854,17 @@
       <c r="E14" s="2">
         <v>50.564972369381302</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="3">
+        <v>48.446925309164797</v>
+      </c>
+      <c r="H14" s="3">
+        <v>52.683019429597699</v>
+      </c>
+      <c r="I14" s="2">
+        <v>50.564972369381302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -734,8 +880,17 @@
       <c r="E15" s="2">
         <v>24.462666204639699</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="3">
+        <v>25.684404667795899</v>
+      </c>
+      <c r="H15" s="3">
+        <v>23.2409277414834</v>
+      </c>
+      <c r="I15" s="2">
+        <v>24.462666204639699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -751,8 +906,17 @@
       <c r="E16" s="2">
         <v>23.676402381185699</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="3">
+        <v>20.7704597189013</v>
+      </c>
+      <c r="H16" s="3">
+        <v>26.582345043470099</v>
+      </c>
+      <c r="I16" s="2">
+        <v>23.676402381185699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -768,8 +932,17 @@
       <c r="E17" s="2">
         <v>23.988560841393301</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="3">
+        <v>25.297413956372701</v>
+      </c>
+      <c r="H17" s="3">
+        <v>22.679707726413898</v>
+      </c>
+      <c r="I17" s="2">
+        <v>23.988560841393301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -785,8 +958,17 @@
       <c r="E18" s="2">
         <v>23.965398121841002</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="3">
+        <v>16.849763515796901</v>
+      </c>
+      <c r="H18" s="3">
+        <v>31.081032727885098</v>
+      </c>
+      <c r="I18" s="2">
+        <v>23.965398121841002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -802,8 +984,17 @@
       <c r="E19" s="2">
         <v>33.218687051102698</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="3">
+        <v>31.852331134429299</v>
+      </c>
+      <c r="H19" s="3">
+        <v>34.585042967776197</v>
+      </c>
+      <c r="I19" s="2">
+        <v>33.218687051102698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -819,8 +1010,17 @@
       <c r="E20" s="2">
         <v>33.501092204711803</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="3">
+        <v>33.7725037997767</v>
+      </c>
+      <c r="H20" s="3">
+        <v>33.229680609646898</v>
+      </c>
+      <c r="I20" s="2">
+        <v>33.501092204711803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -834,6 +1034,15 @@
         <v>37.170997426452601</v>
       </c>
       <c r="E21" s="2">
+        <v>39.5529504348765</v>
+      </c>
+      <c r="G21" s="3">
+        <v>41.934903443300399</v>
+      </c>
+      <c r="H21" s="3">
+        <v>37.170997426452601</v>
+      </c>
+      <c r="I21" s="2">
         <v>39.5529504348765</v>
       </c>
     </row>
